--- a/scimagojr/scimagojr_2000.xlsx
+++ b/scimagojr/scimagojr_2000.xlsx
@@ -335,21 +335,21 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>Ghana</t>
+  </si>
+  <si>
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Ghana</t>
-  </si>
-  <si>
     <t>Senegal</t>
   </si>
   <si>
+    <t>Nepal</t>
+  </si>
+  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
-    <t>Nepal</t>
-  </si>
-  <si>
     <t>Macedonia</t>
   </si>
   <si>
@@ -416,18 +416,18 @@
     <t>Malta</t>
   </si>
   <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
     <t>Gambia</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Qatar</t>
   </si>
   <si>
     <t>New Caledonia</t>
   </si>
   <si>
-    <t>Qatar</t>
-  </si>
-  <si>
     <t>Palestine</t>
   </si>
   <si>
@@ -449,10 +449,13 @@
     <t>Gabon</t>
   </si>
   <si>
+    <t>Niger</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
-    <t>Niger</t>
+    <t>Namibia</t>
   </si>
   <si>
     <t>Guadeloupe</t>
@@ -464,21 +467,18 @@
     <t>Barbados</t>
   </si>
   <si>
-    <t>Namibia</t>
-  </si>
-  <si>
     <t>Macao</t>
   </si>
   <si>
     <t>Mozambique</t>
   </si>
   <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
     <t>French Polynesia</t>
   </si>
   <si>
@@ -515,7 +515,7 @@
     <t>Bermuda</t>
   </si>
   <si>
-    <t>Swaziland</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>French Guiana</t>
@@ -533,15 +533,15 @@
     <t>Guam</t>
   </si>
   <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
     <t>El Salvador</t>
   </si>
   <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -551,30 +551,30 @@
     <t>Solomon Islands</t>
   </si>
   <si>
+    <t>Haïti</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
     <t>Seychelles</t>
   </si>
   <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
     <t>Montenegro</t>
   </si>
   <si>
-    <t>Haïti</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
     <t>Democratic Republic Congo</t>
   </si>
   <si>
@@ -587,40 +587,43 @@
     <t>Vanuatu</t>
   </si>
   <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
     <t>Reunion</t>
   </si>
   <si>
-    <t>Virgin Islands (U.S.)</t>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
   </si>
   <si>
     <t>Guinea</t>
   </si>
   <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Burundi</t>
   </si>
   <si>
     <t>Bahamas</t>
   </si>
   <si>
-    <t>Chad</t>
-  </si>
-  <si>
     <t>Federated States of Micronesia</t>
   </si>
   <si>
+    <t>Grenada</t>
+  </si>
+  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>Suriname</t>
   </si>
   <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Burundi</t>
+    <t>San Marino</t>
   </si>
   <si>
     <t>Aruba</t>
@@ -632,43 +635,46 @@
     <t>Comoros</t>
   </si>
   <si>
-    <t>San Marino</t>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
   </si>
   <si>
     <t>Saint Lucia</t>
   </si>
   <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
     <t>Bhutan</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Virgin Islands (British)</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>Sao Tome and Principe</t>
@@ -680,46 +686,40 @@
     <t>Saint Kitts and Nevis</t>
   </si>
   <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
     <t>North Korea</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
     <t>Antigua and Barbuda</t>
   </si>
   <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
     <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>United States Minor Outlying Islands</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Vatican City State</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
   </si>
 </sst>
 </file>
@@ -863,22 +863,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>371642</v>
+        <v>373344</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>354725</v>
+        <v>356681</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>19126754</v>
+        <v>20693606</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>8267556</v>
+        <v>8759126</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>51.47</v>
+        <v>55.43</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -892,22 +892,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>106522</v>
+        <v>106876</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>98444</v>
+        <v>98880</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>4750483</v>
+        <v>5153126</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>968481</v>
+        <v>1020695</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>44.6</v>
+        <v>48.22</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -921,22 +921,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>104435</v>
+        <v>104745</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>102702</v>
+        <v>103105</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2860799</v>
+        <v>3063698</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>692489</v>
+        <v>715614</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>27.39</v>
+        <v>29.25</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -950,22 +950,22 @@
         <v>12</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>89843</v>
+        <v>90084</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>87035</v>
+        <v>87380</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3353321</v>
+        <v>3597302</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>732948</v>
+        <v>762473</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>37.32</v>
+        <v>39.93</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -979,22 +979,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>63803</v>
+        <v>63984</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>61680</v>
+        <v>61896</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2379277</v>
+        <v>2555485</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>448673</v>
+        <v>466334</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>37.29</v>
+        <v>39.94</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1008,22 +1008,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>51571</v>
+        <v>51493</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>51350</v>
+        <v>51298</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>691335</v>
+        <v>740482</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>337432</v>
+        <v>359786</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>13.41</v>
+        <v>14.38</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1037,22 +1037,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>45233</v>
+        <v>45377</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>43391</v>
+        <v>43561</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2108894</v>
+        <v>2290172</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>333516</v>
+        <v>350031</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>46.62</v>
+        <v>50.47</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1066,22 +1066,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>44594</v>
+        <v>44676</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>42954</v>
+        <v>43080</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1532026</v>
+        <v>1642864</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>306526</v>
+        <v>320820</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>34.35</v>
+        <v>36.77</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>34630</v>
+        <v>34660</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>34476</v>
+        <v>34515</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>430377</v>
+        <v>461329</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>123570</v>
+        <v>130413</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>12.43</v>
+        <v>13.31</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1124,22 +1124,22 @@
         <v>12</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>31293</v>
+        <v>31311</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>29945</v>
+        <v>29990</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1001544</v>
+        <v>1078043</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>211032</v>
+        <v>219549</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>32.01</v>
+        <v>34.43</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1153,22 +1153,22 @@
         <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>30838</v>
+        <v>30914</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>29190</v>
+        <v>29293</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1280366</v>
+        <v>1372524</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>227845</v>
+        <v>238935</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>41.52</v>
+        <v>44.4</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1182,22 +1182,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>25650</v>
+        <v>25729</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>24684</v>
+        <v>24785</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1309568</v>
+        <v>1414894</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>165691</v>
+        <v>171906</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>51.06</v>
+        <v>54.99</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1211,22 +1211,22 @@
         <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>25197</v>
+        <v>25214</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>24545</v>
+        <v>24574</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>524528</v>
+        <v>576024</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>167290</v>
+        <v>182438</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>20.82</v>
+        <v>22.85</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1240,22 +1240,22 @@
         <v>12</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>19634</v>
+        <v>19682</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>19145</v>
+        <v>19217</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>924422</v>
+        <v>998353</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>116506</v>
+        <v>120369</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>47.08</v>
+        <v>50.72</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1269,22 +1269,22 @@
         <v>14</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>18492</v>
+        <v>18555</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>18258</v>
+        <v>18336</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>486448</v>
+        <v>521163</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>82237</v>
+        <v>84876</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>26.31</v>
+        <v>28.09</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1298,22 +1298,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>18387</v>
+        <v>18435</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>17766</v>
+        <v>17829</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>981020</v>
+        <v>1052865</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>102137</v>
+        <v>105432</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>53.35</v>
+        <v>57.11</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1327,22 +1327,22 @@
         <v>31</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>15569</v>
+        <v>15607</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>15301</v>
+        <v>15339</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>410897</v>
+        <v>447355</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>126916</v>
+        <v>134327</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>26.39</v>
+        <v>28.66</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1356,22 +1356,22 @@
         <v>21</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>15066</v>
+        <v>15073</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>14923</v>
+        <v>14931</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>288917</v>
+        <v>309447</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>64277</v>
+        <v>66567</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>19.18</v>
+        <v>20.53</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1385,22 +1385,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>13728</v>
+        <v>13771</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>13552</v>
+        <v>13603</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>342445</v>
+        <v>367555</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>57898</v>
+        <v>59292</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>24.95</v>
+        <v>26.69</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1414,22 +1414,22 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>13604</v>
+        <v>13627</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>13114</v>
+        <v>13136</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>558695</v>
+        <v>603144</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>59610</v>
+        <v>61491</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>41.07</v>
+        <v>44.26</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1443,22 +1443,22 @@
         <v>36</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>12331</v>
+        <v>12363</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>11936</v>
+        <v>11976</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>522778</v>
+        <v>565966</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>59737</v>
+        <v>62160</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>42.4</v>
+        <v>45.78</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1472,22 +1472,22 @@
         <v>12</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>10199</v>
+        <v>10248</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>9894</v>
+        <v>9956</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>531484</v>
+        <v>573239</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>58947</v>
+        <v>61131</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>52.11</v>
+        <v>55.94</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1501,22 +1501,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>9799</v>
+        <v>9838</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>9615</v>
+        <v>9662</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>442964</v>
+        <v>478592</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>51694</v>
+        <v>53339</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>45.21</v>
+        <v>48.65</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1530,22 +1530,22 @@
         <v>12</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>9382</v>
+        <v>9403</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>9013</v>
+        <v>9040</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>364512</v>
+        <v>391892</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>37995</v>
+        <v>39289</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>38.85</v>
+        <v>41.68</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1559,22 +1559,22 @@
         <v>36</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>8157</v>
+        <v>8173</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>7701</v>
+        <v>7724</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>180856</v>
+        <v>196606</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>40861</v>
+        <v>43300</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>22.17</v>
+        <v>24.06</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1588,22 +1588,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>7728</v>
+        <v>7766</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>7506</v>
+        <v>7546</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>281088</v>
+        <v>306845</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>32071</v>
+        <v>33218</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>36.37</v>
+        <v>39.51</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1617,22 +1617,22 @@
         <v>12</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>6964</v>
+        <v>6972</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>6737</v>
+        <v>6758</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>205967</v>
+        <v>222696</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>29836</v>
+        <v>31138</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>29.58</v>
+        <v>31.94</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1646,22 +1646,22 @@
         <v>12</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>6860</v>
+        <v>6865</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>6680</v>
+        <v>6692</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>293546</v>
+        <v>320472</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>39477</v>
+        <v>41432</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>42.79</v>
+        <v>46.68</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1675,22 +1675,22 @@
         <v>21</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>6746</v>
+        <v>6750</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>6663</v>
+        <v>6671</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>139599</v>
+        <v>149434</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>27008</v>
+        <v>27894</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>20.69</v>
+        <v>22.14</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1704,22 +1704,22 @@
         <v>31</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>6667</v>
+        <v>6677</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>6526</v>
+        <v>6541</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>181733</v>
+        <v>197478</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>32823</v>
+        <v>34854</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>27.26</v>
+        <v>29.58</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1733,22 +1733,22 @@
         <v>21</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>6490</v>
+        <v>6495</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>6449</v>
+        <v>6454</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>56259</v>
+        <v>60554</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>14537</v>
+        <v>15291</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>8.67</v>
+        <v>9.32</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1762,22 +1762,22 @@
         <v>14</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>6064</v>
+        <v>6094</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>5981</v>
+        <v>6012</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>179812</v>
+        <v>195709</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>16266</v>
+        <v>16860</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>29.65</v>
+        <v>32.12</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1791,22 +1791,22 @@
         <v>21</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>5980</v>
+        <v>5988</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>5854</v>
+        <v>5866</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>151137</v>
+        <v>162675</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>19828</v>
+        <v>20487</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>25.27</v>
+        <v>27.17</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1820,22 +1820,22 @@
         <v>24</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>5894</v>
+        <v>5913</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>5672</v>
+        <v>5694</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>258818</v>
+        <v>284435</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>29748</v>
+        <v>31183</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>43.91</v>
+        <v>48.1</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1849,22 +1849,22 @@
         <v>31</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>5562</v>
+        <v>5582</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>5462</v>
+        <v>5484</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>148185</v>
+        <v>162769</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>28887</v>
+        <v>30378</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>26.64</v>
+        <v>29.16</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1878,22 +1878,22 @@
         <v>52</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>5333</v>
+        <v>5404</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>5082</v>
+        <v>5137</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>149834</v>
+        <v>167339</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>28279</v>
+        <v>30327</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>28.1</v>
+        <v>30.97</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1907,22 +1907,22 @@
         <v>12</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>4498</v>
+        <v>4518</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>4407</v>
+        <v>4417</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>132361</v>
+        <v>142029</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>21679</v>
+        <v>22566</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>29.43</v>
+        <v>31.44</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1936,22 +1936,22 @@
         <v>12</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>3806</v>
+        <v>3825</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>3593</v>
+        <v>3610</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>139889</v>
+        <v>150509</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>12557</v>
+        <v>13016</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>36.75</v>
+        <v>39.35</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1965,22 +1965,22 @@
         <v>56</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>3308</v>
+        <v>3320</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>3282</v>
+        <v>3296</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>64523</v>
+        <v>70675</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>12299</v>
+        <v>13195</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>19.51</v>
+        <v>21.29</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -1994,22 +1994,22 @@
         <v>21</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>3114</v>
+        <v>3117</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>3085</v>
+        <v>3089</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>43849</v>
+        <v>47018</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>7738</v>
+        <v>8031</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>14.08</v>
+        <v>15.08</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2023,22 +2023,22 @@
         <v>21</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2791</v>
+        <v>2798</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>2740</v>
+        <v>2747</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>40436</v>
+        <v>43243</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>7802</v>
+        <v>7997</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>14.49</v>
+        <v>15.45</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2052,22 +2052,22 @@
         <v>21</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>2315</v>
+        <v>2323</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>2288</v>
+        <v>2294</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>45873</v>
+        <v>51644</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>7617</v>
+        <v>7906</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>19.82</v>
+        <v>22.23</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2081,22 +2081,22 @@
         <v>14</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>2290</v>
+        <v>2316</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>2242</v>
+        <v>2274</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>60974</v>
+        <v>69825</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>8613</v>
+        <v>9244</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>26.63</v>
+        <v>30.15</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2110,22 +2110,22 @@
         <v>31</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>2257</v>
+        <v>2263</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>79663</v>
+        <v>86342</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>12647</v>
+        <v>13331</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>34.8</v>
+        <v>37.69</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2139,22 +2139,22 @@
         <v>21</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>2254</v>
+        <v>2281</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>2215</v>
+        <v>2243</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>27915</v>
+        <v>30057</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>5838</v>
+        <v>6116</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>12.38</v>
+        <v>13.18</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2168,22 +2168,22 @@
         <v>21</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>43238</v>
+        <v>47866</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>5112</v>
+        <v>5312</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>19.7</v>
+        <v>21.8</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2197,22 +2197,22 @@
         <v>36</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>38510</v>
+        <v>42662</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>4376</v>
+        <v>4830</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>18.57</v>
+        <v>20.59</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2226,22 +2226,22 @@
         <v>36</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>38124</v>
+        <v>41074</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>13323</v>
+        <v>13934</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>20.39</v>
+        <v>21.92</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2255,22 +2255,22 @@
         <v>14</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>1755</v>
+        <v>1767</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1714</v>
+        <v>1727</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>38857</v>
+        <v>44206</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>6718</v>
+        <v>7250</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>22.14</v>
+        <v>25.02</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2284,22 +2284,22 @@
         <v>31</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>25473</v>
+        <v>27991</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>3364</v>
+        <v>3479</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>18.01</v>
+        <v>19.81</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2313,22 +2313,22 @@
         <v>21</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1396</v>
+        <v>1401</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>16904</v>
+        <v>18088</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>2581</v>
+        <v>2670</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>12.03</v>
+        <v>12.83</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2342,22 +2342,22 @@
         <v>52</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>21865</v>
+        <v>24119</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>4795</v>
+        <v>5245</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>16.58</v>
+        <v>18.3</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2371,22 +2371,22 @@
         <v>31</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>16643</v>
+        <v>17845</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>3076</v>
+        <v>3128</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>12.68</v>
+        <v>13.6</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2400,22 +2400,22 @@
         <v>14</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>21986</v>
+        <v>24248</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>4679</v>
+        <v>5077</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>17.1</v>
+        <v>18.83</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2429,22 +2429,22 @@
         <v>52</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>21197</v>
+        <v>23006</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>3681</v>
+        <v>4051</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>16.72</v>
+        <v>18.17</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2458,22 +2458,22 @@
         <v>21</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>12627</v>
+        <v>16177</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1911</v>
+        <v>2020</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>12.81</v>
+        <v>16.34</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2490,19 +2490,19 @@
         <v>891</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>25217</v>
+        <v>27447</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>3631</v>
+        <v>3934</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>28.3</v>
+        <v>30.8</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2516,22 +2516,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>833</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>13286</v>
+        <v>14271</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>2891</v>
+        <v>3048</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>15.69</v>
+        <v>16.87</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2551,16 +2551,16 @@
         <v>811</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>15470</v>
+        <v>16452</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>2309</v>
+        <v>2388</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>18.91</v>
+        <v>20.11</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2574,22 +2574,22 @@
         <v>14</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>23360</v>
+        <v>25732</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>2866</v>
+        <v>3341</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>30.3</v>
+        <v>33.33</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2603,22 +2603,22 @@
         <v>36</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>15327</v>
+        <v>16947</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1671</v>
+        <v>1783</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>22.41</v>
+        <v>24.7</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2638,16 +2638,16 @@
         <v>652</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>19221</v>
+        <v>20498</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>3056</v>
+        <v>3147</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>29.03</v>
+        <v>30.96</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2661,22 +2661,22 @@
         <v>36</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>12979</v>
+        <v>14307</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1323</v>
+        <v>1378</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>20.44</v>
+        <v>22.42</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2696,16 +2696,16 @@
         <v>618</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>15473</v>
+        <v>17131</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>2367</v>
+        <v>2571</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>24.52</v>
+        <v>27.15</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2719,22 +2719,22 @@
         <v>52</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>27787</v>
+        <v>30079</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>3474</v>
+        <v>3655</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>44.39</v>
+        <v>48.13</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2748,22 +2748,22 @@
         <v>14</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>23981</v>
+        <v>26809</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>2479</v>
+        <v>2700</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>39.9</v>
+        <v>44.53</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2777,22 +2777,22 @@
         <v>52</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>9175</v>
+        <v>9946</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1643</v>
+        <v>1757</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>16.8</v>
+        <v>18.12</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2806,22 +2806,22 @@
         <v>36</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>12943</v>
+        <v>14130</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1079</v>
+        <v>1119</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>24.06</v>
+        <v>26.07</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2835,22 +2835,22 @@
         <v>36</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>8975</v>
+        <v>9869</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>17.5</v>
+        <v>19.16</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2864,22 +2864,22 @@
         <v>21</v>
       </c>
       <c r="D71" s="0" t="n">
+        <v>482</v>
+      </c>
+      <c r="E71" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="E71" s="0" t="n">
-        <v>478</v>
-      </c>
       <c r="F71" s="0" t="n">
-        <v>9970</v>
+        <v>10579</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1447</v>
+        <v>1514</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>20.77</v>
+        <v>21.95</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2893,22 +2893,22 @@
         <v>31</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>17465</v>
+        <v>18975</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>984</v>
+        <v>1027</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>37.32</v>
+        <v>40.29</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2922,22 +2922,22 @@
         <v>21</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>11444</v>
+        <v>12317</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>905</v>
+        <v>955</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>25.6</v>
+        <v>27.68</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2951,22 +2951,22 @@
         <v>14</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>428</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>3993</v>
+        <v>4369</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>757</v>
+        <v>842</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>9.26</v>
+        <v>10.11</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -2980,22 +2980,22 @@
         <v>21</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>8233</v>
+        <v>8799</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1096</v>
+        <v>1154</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>19.37</v>
+        <v>20.65</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3009,22 +3009,22 @@
         <v>14</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>15465</v>
+        <v>16903</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1621</v>
+        <v>1748</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>38.28</v>
+        <v>41.94</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3038,22 +3038,22 @@
         <v>12</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>22132</v>
+        <v>24051</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>2191</v>
+        <v>2304</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>57.94</v>
+        <v>62.8</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3067,22 +3067,22 @@
         <v>31</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>13461</v>
+        <v>14490</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1361</v>
+        <v>1425</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>35.42</v>
+        <v>38.23</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3096,22 +3096,22 @@
         <v>52</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>345</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>7660</v>
+        <v>8356</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>21.4</v>
+        <v>23.28</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3128,19 +3128,19 @@
         <v>322</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>5023</v>
+        <v>5628</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>540</v>
+        <v>584</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>15.6</v>
+        <v>17.48</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3160,16 +3160,16 @@
         <v>302</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>11043</v>
+        <v>12346</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1037</v>
+        <v>1108</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>35.74</v>
+        <v>39.95</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3183,22 +3183,22 @@
         <v>14</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>8522</v>
+        <v>10535</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>30.33</v>
+        <v>37.36</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3212,22 +3212,22 @@
         <v>52</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>8923</v>
+        <v>9760</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1037</v>
+        <v>1099</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>33.29</v>
+        <v>36.01</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3241,22 +3241,22 @@
         <v>12</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>10519</v>
+        <v>11495</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>757</v>
+        <v>784</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>39.69</v>
+        <v>43.54</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3276,16 +3276,16 @@
         <v>247</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>7625</v>
+        <v>8424</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1367</v>
+        <v>1544</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>30.38</v>
+        <v>33.56</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3299,22 +3299,22 @@
         <v>21</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>250</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>2163</v>
+        <v>2282</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>8.62</v>
+        <v>9.13</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3328,22 +3328,22 @@
         <v>14</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>2982</v>
+        <v>3332</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>12.37</v>
+        <v>13.77</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3363,16 +3363,16 @@
         <v>228</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>8618</v>
+        <v>9295</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>990</v>
+        <v>1029</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>36.99</v>
+        <v>39.89</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3386,22 +3386,22 @@
         <v>52</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>11353</v>
+        <v>12175</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1489</v>
+        <v>1588</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>49.79</v>
+        <v>52.93</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3418,19 +3418,19 @@
         <v>227</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>6381</v>
+        <v>6196</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>1221</v>
+        <v>941</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>28.11</v>
+        <v>27.3</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3447,19 +3447,19 @@
         <v>227</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>5600</v>
+        <v>6963</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>814</v>
+        <v>1359</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>24.67</v>
+        <v>30.67</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3479,16 +3479,16 @@
         <v>210</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>5125</v>
+        <v>5522</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>22.88</v>
+        <v>24.65</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3499,25 +3499,25 @@
         <v>109</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>1544</v>
+        <v>5893</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>337</v>
+        <v>712</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>7.88</v>
+        <v>29.76</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>138</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3528,25 +3528,25 @@
         <v>110</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>5360</v>
+        <v>1657</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>652</v>
+        <v>346</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>27.35</v>
+        <v>8.41</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3560,22 +3560,22 @@
         <v>21</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>2219</v>
+        <v>2369</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>11.93</v>
+        <v>13.02</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3589,22 +3589,22 @@
         <v>52</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>173</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>3196</v>
+        <v>3562</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>441</v>
+        <v>502</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>18.16</v>
+        <v>20.35</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3618,22 +3618,22 @@
         <v>52</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>153</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>4909</v>
+        <v>5304</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>30.49</v>
+        <v>32.34</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3653,16 +3653,16 @@
         <v>153</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>3197</v>
+        <v>3455</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>20.49</v>
+        <v>22.15</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3676,22 +3676,22 @@
         <v>36</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>147</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>4020</v>
+        <v>4488</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>26.62</v>
+        <v>29.92</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3705,22 +3705,22 @@
         <v>31</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>5507</v>
+        <v>6006</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>38.51</v>
+        <v>41.71</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3734,22 +3734,22 @@
         <v>31</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>2300</v>
+        <v>2471</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>17.97</v>
+        <v>18.86</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3769,16 +3769,16 @@
         <v>115</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>5561</v>
+        <v>5836</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>45.58</v>
+        <v>47.84</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3792,22 +3792,22 @@
         <v>12</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>3025</v>
+        <v>3273</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>26.3</v>
+        <v>28.22</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3821,22 +3821,22 @@
         <v>52</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>3329</v>
+        <v>3580</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>29.46</v>
+        <v>31.4</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3850,22 +3850,22 @@
         <v>36</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>1206</v>
+        <v>1302</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>10.96</v>
+        <v>11.73</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3885,16 +3885,16 @@
         <v>101</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>10185</v>
+        <v>11056</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>615</v>
+        <v>648</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>97</v>
+        <v>105.3</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3908,22 +3908,22 @@
         <v>52</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>2454</v>
+        <v>2673</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>23.6</v>
+        <v>25.46</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3943,16 +3943,16 @@
         <v>103</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>2025</v>
+        <v>2205</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>19.66</v>
+        <v>21.41</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3972,16 +3972,16 @@
         <v>98</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>2468</v>
+        <v>2639</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>24.68</v>
+        <v>26.39</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4001,16 +4001,16 @@
         <v>90</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>2177</v>
+        <v>2340</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>22.44</v>
+        <v>24.12</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4024,22 +4024,22 @@
         <v>21</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>1185</v>
+        <v>1269</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>13.02</v>
+        <v>13.79</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4053,22 +4053,22 @@
         <v>52</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>976</v>
+        <v>1086</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>11.09</v>
+        <v>12.2</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4088,16 +4088,16 @@
         <v>80</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>3456</v>
+        <v>3764</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>42.15</v>
+        <v>45.9</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4117,16 +4117,16 @@
         <v>78</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>2636</v>
+        <v>2839</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>32.54</v>
+        <v>35.05</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4146,16 +4146,16 @@
         <v>80</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>1910</v>
+        <v>2048</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>23.58</v>
+        <v>25.28</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4169,22 +4169,22 @@
         <v>12</v>
       </c>
       <c r="D116" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="E116" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="E116" s="0" t="n">
-        <v>74</v>
-      </c>
       <c r="F116" s="0" t="n">
-        <v>1484</v>
+        <v>1970</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>19.53</v>
+        <v>25.26</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4201,19 +4201,19 @@
         <v>73</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>4093</v>
+        <v>1066</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>288</v>
+        <v>53</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>56.07</v>
+        <v>14.6</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4230,19 +4230,19 @@
         <v>73</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>1001</v>
+        <v>4318</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>13.71</v>
+        <v>59.15</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>104</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4253,25 +4253,25 @@
         <v>135</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>67</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>2036</v>
+        <v>754</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>248</v>
+        <v>55</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>30.39</v>
+        <v>11.25</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>123</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4282,25 +4282,25 @@
         <v>136</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>686</v>
+        <v>2165</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>10.39</v>
+        <v>32.31</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>238</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4320,16 +4320,16 @@
         <v>63</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>1046</v>
+        <v>1135</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>16.6</v>
+        <v>18.02</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4349,16 +4349,16 @@
         <v>60</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>2948</v>
+        <v>3229</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>48.33</v>
+        <v>52.93</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4378,16 +4378,16 @@
         <v>59</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>1340</v>
+        <v>1500</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>22.33</v>
+        <v>25</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4401,22 +4401,22 @@
         <v>14</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>2149</v>
+        <v>2590</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>37.7</v>
+        <v>44.66</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4436,16 +4436,16 @@
         <v>51</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>1509</v>
+        <v>1629</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>27.44</v>
+        <v>29.62</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4465,16 +4465,16 @@
         <v>51</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>1418</v>
+        <v>1520</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>25.78</v>
+        <v>27.64</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4494,16 +4494,16 @@
         <v>47</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>2664</v>
+        <v>2816</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>51.23</v>
+        <v>54.15</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4520,19 +4520,19 @@
         <v>51</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>778</v>
+        <v>1892</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>15.25</v>
+        <v>37.1</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>63</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4549,19 +4549,19 @@
         <v>51</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>1702</v>
+        <v>859</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>33.37</v>
+        <v>16.84</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4572,7 +4572,7 @@
         <v>146</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>47</v>
@@ -4581,16 +4581,16 @@
         <v>47</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>1066</v>
+        <v>1248</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>22.68</v>
+        <v>26.55</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>79</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4601,25 +4601,25 @@
         <v>147</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>1173</v>
+        <v>1130</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>26.07</v>
+        <v>24.04</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4630,25 +4630,25 @@
         <v>148</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D132" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E132" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E132" s="0" t="n">
-        <v>44</v>
-      </c>
       <c r="F132" s="0" t="n">
-        <v>1194</v>
+        <v>1325</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>26.53</v>
+        <v>28.8</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4659,7 +4659,7 @@
         <v>149</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>45</v>
@@ -4668,16 +4668,16 @@
         <v>45</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>1120</v>
+        <v>1372</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>24.89</v>
+        <v>30.49</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4691,22 +4691,22 @@
         <v>14</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>7.43</v>
+        <v>7.96</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4726,16 +4726,16 @@
         <v>39</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>1727</v>
+        <v>1881</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>39.25</v>
+        <v>42.75</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4746,25 +4746,25 @@
         <v>152</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>43</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>810</v>
+        <v>313</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>18.84</v>
+        <v>7.28</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4775,25 +4775,25 @@
         <v>153</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>43</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>283</v>
+        <v>887</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>6.58</v>
+        <v>20.63</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4813,16 +4813,16 @@
         <v>40</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>2074</v>
+        <v>2322</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>48.23</v>
+        <v>54</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4842,16 +4842,16 @@
         <v>37</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>1625</v>
+        <v>1794</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>41.67</v>
+        <v>46</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4871,16 +4871,16 @@
         <v>37</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>7.81</v>
+        <v>8.84</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4900,16 +4900,16 @@
         <v>34</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>1656</v>
+        <v>1735</v>
       </c>
       <c r="G141" s="0" t="n">
         <v>34</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>47.31</v>
+        <v>49.57</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4929,16 +4929,16 @@
         <v>33</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>1369</v>
+        <v>1473</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>41.48</v>
+        <v>44.64</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4958,16 +4958,16 @@
         <v>28</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1820</v>
+        <v>2000</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>56.88</v>
+        <v>62.5</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -4981,22 +4981,22 @@
         <v>12</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>1036</v>
+        <v>1083</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>32.38</v>
+        <v>34.94</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5016,16 +5016,16 @@
         <v>29</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>1069</v>
+        <v>1161</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>35.63</v>
+        <v>38.7</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5045,16 +5045,16 @@
         <v>30</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>720</v>
+        <v>795</v>
       </c>
       <c r="G146" s="0" t="n">
         <v>16</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>24</v>
+        <v>26.5</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5074,16 +5074,16 @@
         <v>26</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>720</v>
+        <v>774</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>24.83</v>
+        <v>26.69</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5103,16 +5103,16 @@
         <v>27</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>1142</v>
+        <v>1241</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>42.3</v>
+        <v>45.96</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5132,16 +5132,16 @@
         <v>26</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>1354</v>
+        <v>1474</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>52.08</v>
+        <v>56.69</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5161,16 +5161,16 @@
         <v>26</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>1004</v>
+        <v>1081</v>
       </c>
       <c r="G150" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>38.62</v>
+        <v>41.58</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5190,16 +5190,16 @@
         <v>24</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>991</v>
+        <v>1057</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>39.64</v>
+        <v>42.28</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5219,16 +5219,16 @@
         <v>24</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>752</v>
+        <v>815</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>30.08</v>
+        <v>32.6</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5248,16 +5248,16 @@
         <v>22</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>578</v>
+        <v>628</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>25.13</v>
+        <v>27.3</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5277,16 +5277,16 @@
         <v>22</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G154" s="0" t="n">
         <v>9</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>12.52</v>
+        <v>13.65</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5306,16 +5306,16 @@
         <v>21</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>1188</v>
+        <v>1274</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>54</v>
+        <v>57.91</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5326,25 +5326,25 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>463</v>
+        <v>1093</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>24.37</v>
+        <v>60.72</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5355,7 +5355,7 @@
         <v>173</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>18</v>
@@ -5364,16 +5364,16 @@
         <v>18</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>1005</v>
+        <v>340</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>55.83</v>
+        <v>18.89</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>50</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5384,25 +5384,25 @@
         <v>174</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>310</v>
+        <v>469</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>17.22</v>
+        <v>26.06</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5422,16 +5422,16 @@
         <v>16</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>603</v>
+        <v>668</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>35.47</v>
+        <v>39.29</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5451,16 +5451,16 @@
         <v>17</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="G160" s="0" t="n">
         <v>16</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>26.53</v>
+        <v>28.65</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5480,16 +5480,16 @@
         <v>15</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>465</v>
+        <v>562</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>31</v>
+        <v>37.47</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5500,7 +5500,7 @@
         <v>178</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>14</v>
@@ -5509,16 +5509,16 @@
         <v>14</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>755</v>
+        <v>507</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>53.93</v>
+        <v>36.21</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5529,7 +5529,7 @@
         <v>179</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>14</v>
@@ -5538,16 +5538,16 @@
         <v>14</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>702</v>
+        <v>468</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>50.14</v>
+        <v>33.43</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5558,7 +5558,7 @@
         <v>180</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>14</v>
@@ -5567,16 +5567,16 @@
         <v>14</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>458</v>
+        <v>801</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>32.71</v>
+        <v>57.21</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5596,16 +5596,16 @@
         <v>14</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>40.5</v>
+        <v>42.43</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5616,7 +5616,7 @@
         <v>182</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>14</v>
@@ -5625,16 +5625,16 @@
         <v>14</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>434</v>
+        <v>753</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>31</v>
+        <v>53.79</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5654,16 +5654,16 @@
         <v>13</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>719</v>
+        <v>804</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>55.31</v>
+        <v>61.85</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5683,16 +5683,16 @@
         <v>13</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>16.08</v>
+        <v>10.69</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5712,16 +5712,16 @@
         <v>13</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>9.85</v>
+        <v>19.31</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5741,16 +5741,16 @@
         <v>11</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="G170" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>16.67</v>
+        <v>18.75</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5770,16 +5770,16 @@
         <v>9</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>24.2</v>
+        <v>26.6</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5799,16 +5799,16 @@
         <v>10</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>954</v>
+        <v>1035</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>95.4</v>
+        <v>103.5</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5828,16 +5828,16 @@
         <v>9</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="G173" s="0" t="n">
         <v>20</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>44.3</v>
+        <v>47</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5848,7 +5848,7 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>9</v>
@@ -5857,16 +5857,16 @@
         <v>8</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>5</v>
+        <v>45.44</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5877,7 +5877,7 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>9</v>
@@ -5886,16 +5886,16 @@
         <v>8</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>371</v>
+        <v>47</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>41.22</v>
+        <v>5.22</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5906,7 +5906,7 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>7</v>
@@ -5915,16 +5915,16 @@
         <v>7</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>46.43</v>
+        <v>5.86</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5935,7 +5935,7 @@
         <v>193</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>7</v>
@@ -5944,16 +5944,16 @@
         <v>7</v>
       </c>
       <c r="F177" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="G177" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G177" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="H177" s="0" t="n">
-        <v>5.14</v>
+        <v>52.14</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>42</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -5973,16 +5973,16 @@
         <v>7</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>47.43</v>
+        <v>53.14</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -5993,7 +5993,7 @@
         <v>195</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>6</v>
@@ -6002,16 +6002,16 @@
         <v>5</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>31</v>
+        <v>23.67</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6028,19 +6028,19 @@
         <v>6</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>21</v>
+        <v>15.67</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6051,25 +6051,25 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>305</v>
+        <v>208</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>50.83</v>
+        <v>34.67</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6080,25 +6080,25 @@
         <v>198</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>74.8</v>
+        <v>57.33</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6115,19 +6115,19 @@
         <v>5</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="G183" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>21.4</v>
+        <v>29.2</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6138,25 +6138,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>133</v>
+        <v>381</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>26.6</v>
+        <v>76.2</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6167,7 +6167,7 @@
         <v>201</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>5</v>
@@ -6176,16 +6176,16 @@
         <v>5</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>17.4</v>
+        <v>22.6</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6196,25 +6196,25 @@
         <v>202</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>20.75</v>
+        <v>26.5</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6225,7 +6225,7 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>4</v>
@@ -6234,16 +6234,16 @@
         <v>4</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>3.75</v>
+        <v>23.5</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6254,25 +6254,25 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>1.75</v>
+        <v>4.25</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6283,25 +6283,25 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>23.25</v>
+        <v>1.75</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6312,7 +6312,7 @@
         <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>3</v>
@@ -6321,13 +6321,13 @@
         <v>3</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>32.33</v>
+        <v>23.33</v>
       </c>
       <c r="I190" s="0" t="n">
         <v>30</v>
@@ -6350,16 +6350,16 @@
         <v>3</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>13</v>
+        <v>0.67</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6370,25 +6370,25 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="G192" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>33</v>
+        <v>19.33</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6399,25 +6399,25 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>23.67</v>
+        <v>37.33</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6428,7 +6428,7 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>3</v>
@@ -6437,16 +6437,16 @@
         <v>3</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>17.67</v>
+        <v>55</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6466,16 +6466,16 @@
         <v>3</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>22.33</v>
+        <v>36.33</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6495,16 +6495,16 @@
         <v>3</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>22</v>
+        <v>26.33</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6515,7 +6515,7 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>3</v>
@@ -6524,16 +6524,16 @@
         <v>3</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>14.33</v>
+        <v>24.33</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6553,16 +6553,16 @@
         <v>3</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>12</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>52.33</v>
+        <v>23</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6573,7 +6573,7 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>3</v>
@@ -6582,16 +6582,16 @@
         <v>3</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>20.67</v>
+        <v>15</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6602,7 +6602,7 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>3</v>
@@ -6611,16 +6611,16 @@
         <v>3</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>0.67</v>
+        <v>24</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6631,7 +6631,7 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>3</v>
@@ -6640,16 +6640,16 @@
         <v>3</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>24.67</v>
+        <v>13.67</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6660,7 +6660,7 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>2</v>
@@ -6669,16 +6669,16 @@
         <v>2</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>32.5</v>
+        <v>27</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6689,7 +6689,7 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>2</v>
@@ -6698,16 +6698,16 @@
         <v>2</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>88.5</v>
+        <v>0.5</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6718,7 +6718,7 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>2</v>
@@ -6727,16 +6727,16 @@
         <v>2</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>3</v>
+        <v>35.5</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6756,16 +6756,16 @@
         <v>2</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>1.5</v>
+        <v>95</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6785,16 +6785,16 @@
         <v>2</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>20.5</v>
+        <v>3</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6805,7 +6805,7 @@
         <v>223</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>2</v>
@@ -6814,16 +6814,16 @@
         <v>2</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6834,7 +6834,7 @@
         <v>224</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>2</v>
@@ -6843,16 +6843,16 @@
         <v>2</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>23.5</v>
+        <v>1.5</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6872,16 +6872,16 @@
         <v>1</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6892,7 +6892,7 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>1</v>
@@ -6901,16 +6901,16 @@
         <v>1</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G210" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6921,7 +6921,7 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>1</v>
@@ -6930,16 +6930,16 @@
         <v>1</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G211" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6950,7 +6950,7 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>1</v>
@@ -6959,16 +6959,16 @@
         <v>1</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G212" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -6988,16 +6988,16 @@
         <v>1</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7008,7 +7008,7 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>1</v>
@@ -7017,16 +7017,16 @@
         <v>1</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7037,7 +7037,7 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>1</v>
@@ -7046,16 +7046,16 @@
         <v>1</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G215" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7095,7 +7095,7 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>1</v>
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7124,7 +7124,7 @@
         <v>234</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>1</v>
@@ -7133,16 +7133,16 @@
         <v>1</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
